--- a/結合テスト/結合テスト_シナリオ一覧_teamF.xlsx
+++ b/結合テスト/結合テスト_シナリオ一覧_teamF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF02E78-2C33-4B4B-A998-B954B2E42A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6A2A87-E36B-4A44-A150-C44D538F577D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D4AD0730-A377-4EF7-A1DB-6931266C35A9}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{D4AD0730-A377-4EF7-A1DB-6931266C35A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="198">
   <si>
     <t>RaffineHome結合テストシナリオ一覧</t>
     <phoneticPr fontId="1"/>
@@ -189,9 +189,6 @@
     <t>空のカートに初めて商品を追加する</t>
   </si>
   <si>
-    <t>POST /api/cart -&gt; CartController -&gt; CartService -&gt; (ProductRepository) -&gt; Session</t>
-  </si>
-  <si>
     <t>指定した商品と数量がカートに追加され、更新されたカート情報（合計数量、合計金額含む）がJSONで返却される (200 OK)。セッションにカートが保存される。</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>カート内の商品の数量を変更する</t>
   </si>
   <si>
-    <t>PUT /api/cart/update/{productId}  -&gt; CartController -&gt; CartService -&gt; Session</t>
-  </si>
-  <si>
     <t>指定した商品の数量、小計、カート全体の合計が更新されたカート情報が返却される (200 OK)。</t>
   </si>
   <si>
@@ -331,25 +325,16 @@
     <t>カート数量更新時に数量0を指定する</t>
   </si>
   <si>
-    <t>PUT /api/cart/update/{productId}  (quantity:0) -&gt; CartController (Validation)</t>
-  </si>
-  <si>
     <t>2-15</t>
   </si>
   <si>
     <t>カート数量更新時に数量に負数を指定する</t>
   </si>
   <si>
-    <t>PUT /api/cart/update/{productId}  (quantity: -1) -&gt; CartController (Validation)</t>
-  </si>
-  <si>
     <t>2-16</t>
   </si>
   <si>
     <t>カート数量更新時に数量をnullで指定する</t>
-  </si>
-  <si>
-    <t>PUT /api/cart/update/{productId}  (quantity: null) -&gt; CartController (Validation)</t>
   </si>
   <si>
     <t>2-17</t>
@@ -574,16 +559,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品一覧取得</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンイチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GET /api/admin → AdminController → AdminService → ProductRepository</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -881,6 +856,58 @@
   </si>
   <si>
     <t xml:space="preserve">PUT /api/admin/{id} → AdminController  </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST /api/cart/add -&gt; CartController -&gt; CartService -&gt; (ProductRepository) -&gt; Session</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUT /api/cart/update/ -&gt; CartController -&gt; CartService -&gt; Session</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUT /api/cart/update (quantity:0) -&gt; CartController (Validation)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUT /api/cart/update (quantity: -1) -&gt; CartController (Validation)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUT /api/cart/update/ (quantity: null) -&gt; CartController (Validation)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧取得（複数商品登録）</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>フクスウショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧取得（商品データが0件）</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1407,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B58C232-3412-462C-AB01-3FF28E9C0C9E}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
@@ -1632,10 +1659,10 @@
         <v>40</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1644,16 +1671,16 @@
     <row r="16" spans="1:8" ht="36">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1662,16 +1689,16 @@
     <row r="17" spans="1:8" ht="36">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1680,16 +1707,16 @@
     <row r="18" spans="1:8" ht="36">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1698,16 +1725,16 @@
     <row r="19" spans="1:8" ht="36" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="E19" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1716,16 +1743,16 @@
     <row r="20" spans="1:8" ht="36" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="E20" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -1734,16 +1761,16 @@
     <row r="21" spans="1:8" ht="36">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1752,16 +1779,16 @@
     <row r="22" spans="1:8" ht="36">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -1772,16 +1799,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="E23" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1790,16 +1817,16 @@
     <row r="24" spans="1:8" ht="36">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="E24" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -1808,16 +1835,16 @@
     <row r="25" spans="1:8" ht="36">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="E25" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1826,16 +1853,16 @@
     <row r="26" spans="1:8" ht="36">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="E26" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1844,16 +1871,16 @@
     <row r="27" spans="1:8" ht="36">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="E27" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -1862,16 +1889,16 @@
     <row r="28" spans="1:8" ht="36">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -1880,16 +1907,16 @@
     <row r="29" spans="1:8" ht="36">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1898,16 +1925,16 @@
     <row r="30" spans="1:8" ht="36">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -1916,16 +1943,16 @@
     <row r="31" spans="1:8" ht="36">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1934,16 +1961,16 @@
     <row r="32" spans="1:8" ht="36">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -1956,7 +1983,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1987,16 +2014,16 @@
         <v>10</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -2005,16 +2032,16 @@
     <row r="37" spans="1:8" ht="36">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -2023,16 +2050,16 @@
     <row r="38" spans="1:8">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -2043,16 +2070,16 @@
         <v>19</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -2061,16 +2088,16 @@
     <row r="40" spans="1:8" ht="78.75" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -2079,16 +2106,16 @@
     <row r="41" spans="1:8" ht="77.25" customHeight="1">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -2097,16 +2124,16 @@
     <row r="42" spans="1:8" ht="41.25" customHeight="1">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -2115,16 +2142,16 @@
     <row r="43" spans="1:8" ht="39" customHeight="1">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -2133,16 +2160,16 @@
     <row r="44" spans="1:8" ht="41.25" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -2151,16 +2178,16 @@
     <row r="45" spans="1:8" ht="60" customHeight="1">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -2169,16 +2196,16 @@
     <row r="46" spans="1:8" ht="61.5" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -2187,16 +2214,16 @@
     <row r="47" spans="1:8" ht="109.5" customHeight="1">
       <c r="A47" s="8"/>
       <c r="B47" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -2209,7 +2236,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -2240,16 +2267,16 @@
         <v>10</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -2258,16 +2285,16 @@
     <row r="52" spans="1:8" ht="36">
       <c r="A52" s="15"/>
       <c r="B52" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -2276,16 +2303,16 @@
     <row r="53" spans="1:8" ht="36">
       <c r="A53" s="15"/>
       <c r="B53" s="16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -2294,16 +2321,16 @@
     <row r="54" spans="1:8" ht="36">
       <c r="A54" s="15"/>
       <c r="B54" s="16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -2312,16 +2339,16 @@
     <row r="55" spans="1:8" ht="36">
       <c r="A55" s="15"/>
       <c r="B55" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
@@ -2330,16 +2357,16 @@
     <row r="56" spans="1:8" ht="36">
       <c r="A56" s="15"/>
       <c r="B56" s="16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
@@ -2347,16 +2374,16 @@
     </row>
     <row r="57" spans="1:8" ht="36">
       <c r="A57" s="15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>23</v>
@@ -2368,16 +2395,16 @@
     <row r="58" spans="1:8" ht="36">
       <c r="A58" s="15"/>
       <c r="B58" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
@@ -2386,16 +2413,16 @@
     <row r="59" spans="1:8" ht="36">
       <c r="A59" s="15"/>
       <c r="B59" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
@@ -2404,16 +2431,16 @@
     <row r="60" spans="1:8" ht="36">
       <c r="A60" s="15"/>
       <c r="B60" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
@@ -2422,16 +2449,16 @@
     <row r="61" spans="1:8" ht="36">
       <c r="A61" s="15"/>
       <c r="B61" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -2440,16 +2467,16 @@
     <row r="62" spans="1:8" ht="36">
       <c r="A62" s="15"/>
       <c r="B62" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
@@ -2458,16 +2485,16 @@
     <row r="63" spans="1:8" ht="36">
       <c r="A63" s="15"/>
       <c r="B63" s="16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
@@ -2476,16 +2503,16 @@
     <row r="64" spans="1:8" ht="36">
       <c r="A64" s="15"/>
       <c r="B64" s="16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
@@ -2494,16 +2521,16 @@
     <row r="65" spans="1:8" ht="36">
       <c r="A65" s="15"/>
       <c r="B65" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
@@ -2512,16 +2539,16 @@
     <row r="66" spans="1:8" ht="36">
       <c r="A66" s="15"/>
       <c r="B66" s="16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
